--- a/excel_form_automation/주간업무계획표.xlsx
+++ b/excel_form_automation/주간업무계획표.xlsx
@@ -413,14 +413,57 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>담당자</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>김패캠</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>시작일</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>주간업무계획표</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>(2023-09-04 ~ 2023-09-05)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B5:F5"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/excel_form_automation/주간업무계획표.xlsx
+++ b/excel_form_automation/주간업무계획표.xlsx
@@ -413,13 +413,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:F6"/>
+  <dimension ref="B2:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
     <row r="2">
       <c r="B2" t="inlineStr">
@@ -459,10 +463,132 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>날짜</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>요일</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>시간</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>일정</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>비고</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+    </row>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2023-09-07</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+    </row>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+    </row>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="17">
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="B14:B18"/>
     <mergeCell ref="B6:F6"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B24:B28"/>
     <mergeCell ref="B5:F5"/>
+    <mergeCell ref="F19:F23"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="F29:F33"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
